--- a/loaded_influencer_data/sherrymorganmakeup/sherrymorganmakeup_video.xlsx
+++ b/loaded_influencer_data/sherrymorganmakeup/sherrymorganmakeup_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherrymorganmakeup/video/7193084836683222315</t>
         </is>
@@ -528,7 +528,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>프로세스를 신뢰 🧖🏼‍♀️@colorwow.hair @amika @dysonhair @bumbleandbumble @augustinusbader @volobeauty</t>
+          <t>Trust the process 🧖🏼‍♀️@colorwow.hair @amika @dysonhair @bumbleandbumble @augustinusbader</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -558,7 +558,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherrymorganmakeup/video/7350409373182725419</t>
         </is>
@@ -580,7 +580,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>핑크 목련, 솔라 가든리아, 로즈 얼티밋의 로맨틱한 노트와 워터 연꽃으로 터치감 있는 바삭함으로 아름다운 목련과 함께 첫 번째 악센트에 가을 사랑! 봄을 맞아 꼭 필요한 여성스러운 향기!</t>
+          <t>Fall love at first acent with Beautiful Magnolia by @Estée Lauder with romantic notes of pink magnolia, solar gardenia and rose ultimate and a touch crispness with water lotus it is the must have feminine scent for the spring!</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -610,16 +610,16 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherrymorganmakeup/video/7317413893943381278</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>433000</v>
+        <v>433100</v>
       </c>
       <c r="C4" t="n">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D4" t="n">
         <v>14</v>
@@ -632,23 +632,24 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>크리스마스 이브의 내 눈 표정. 브로우 펜슬은 아이섀도우에서 온 유니버설 브로우 에브리얼 팔레트 컬러 ee4, ee8, ee9, ee5, 스파클 컬러는 ee6, ee10, 마스카라는 이클립스</t>
+          <t>My eye look from Christmas Eve.
+Brow Pencil is universal brow from @billiondollarbeauty eye shadow is</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.2951501154734411</v>
+        <v>0.2953128607711845</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2919168591224018</v>
+        <v>0.2920803509582083</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003233256351039261</v>
+        <v>0.003232509812976218</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07321016166281755</v>
+        <v>0.07319325790810437</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -662,69 +663,69 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7486836552786529582</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7489060615332302123</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21200</v>
+        <v>553</v>
       </c>
       <c r="C5" t="n">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>크리스마스 이브의 내 눈 표정. 브로우 펜슬은 아이섀도우에서 온 유니버설 브로우 에브리얼 팔레트 컬러 ee4, ee8, ee9, ee5, 스파클 컬러는 ee6, ee10, 마스카라는 이클립스</t>
+          <t>I was gifted this from @Colleen Rothschild Beauty it's a tinted eye cream. Helps to illuminate under the eye. This is not a paid ad it's just me trying the products &amp; I really liked this. Great under concealer! There are no filters! I always like my followers to see it organically!</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.3490566037735849</v>
+        <v>1.265822784810127</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3349056603773585</v>
+        <v>1.265822784810127</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01415094339622642</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05660377358490566</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-04-04</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7486657995095706926</t>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7488692447044881710</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158</v>
+        <v>304</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -734,20 +735,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>정말 감사합니다. 이 아이콘을 사용해 볼 수 있어서 너무 기쁩니다!@Colleen Rothschild Beauty #skincare</t>
+          <t>@Clarins USA you have outdone yourselves with the water lip stains! They come in 4 colors! Grab one and try it for yourself!!!</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.6329113924050633</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6329113924050633</v>
+        <v>1.973684210526316</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.6578947368421052</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -757,21 +758,21 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-03</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7485893270204271918</t>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7488498370709916974</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>291</v>
+        <v>1985</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
@@ -780,98 +781,98 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>나는 그늘과 치수를 추가하는 것을 좋아하지만 브론저는 해변에서 햇볕에 쬐는 날처럼 보이는 것을 좋아합니다! 이것은 좋아하는 것입니다! 컬러 미디엄입니다!</t>
+          <t>I am telling you these stains LAST!!! I am obsessed! Because I do love glossy lips I topped with their lip oil! You have to try these! I have them linked under shop my makeup in my bio!</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3.092783505154639</v>
+        <v>1.007556675062972</v>
       </c>
       <c r="I7" t="n">
-        <v>2.405498281786942</v>
+        <v>0.906801007556675</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6872852233676976</v>
+        <v>0.1007556675062972</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.1007556675062972</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-02</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7485169018509217067</t>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7488061795651915050</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>602</v>
+        <v>2885</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>그냥 립스틱이라는 것을 기억하자! 💄 라이너는 황갈색 누드 글로스는 라벤더 소르베트@Jones Road Beauty</t>
+          <t>I haven’t loved something this much in a long time!!!! @NARS Cosmetics they have 4 different ones to choose from! This is hot escape cheek Palette 1</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.32890365448505</v>
+        <v>1.247833622183709</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9966777408637874</v>
+        <v>1.143847487001733</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3322259136212625</v>
+        <v>0.1039861351819757</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.1733102253032929</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-01</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7484602588176944430</t>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7487956424803519790</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -884,14 +885,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>나는 오늘 준비하고 있었고 사람들이 확대 거울을 내려놓아야 한다고 생각했습니다. 여성과 남성은 모든 사람이 자신이 보는 것을 보고 있다고 생각하는 거울을 너무 가까이서 보는 것으로 자신을 엄하게 대합니다. 물러나세요 여러분은 훨씬 더 행복할 것입니다!</t>
+          <t>I love to double cleanse with this new fig cleansing balm from @ELEMIS first it smells soooo good! But it melts off makeup leaving your skin soft and hydrated but clean! @sephora</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.58311345646438</v>
+        <v>0.8264462809917356</v>
       </c>
       <c r="I9" t="n">
-        <v>1.58311345646438</v>
+        <v>0.8264462809917356</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -907,21 +908,21 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-01</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7484307309678710059</t>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7487204881523117355</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>339</v>
+        <v>404</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -934,14 +935,14 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>28년의 메이크업 아티스트로서 저는 수년 동안 소셜에서 응용에 대한 흥미로운 추세를 발견했습니다! 이것이 도움이 되기를 바랍니다!</t>
+          <t>This product from @RMS Beauty is so versatile! Wear alone , mix with foundation, or use on on cheeks and bridge of nose either way you will love the glow !!!!</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1.179941002949852</v>
+        <v>1.237623762376238</v>
       </c>
       <c r="I10" t="n">
-        <v>1.179941002949852</v>
+        <v>1.237623762376238</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -957,21 +958,21 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7483868122647252266</t>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7486836552786529582</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8460</v>
+        <v>21200</v>
       </c>
       <c r="C11" t="n">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D11" t="n">
         <v>3</v>
@@ -980,148 +981,148 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>나는 사용하기 매우 쉬운 쉬폰과 계피 라이너에 집착하여 우아한 모습을 연출합니다! 메이크업 아래 링크 쇼핑</t>
+          <t>크리스마스 이브의 내 눈 표정. 브로우 펜슬은 아이섀도우에서 온 유니버설 브로우 에브리얼 팔레트 컬러 ee4, ee8, ee9, ee5, 스파클 컬러는 ee6, ee10, 마스카라는 이클립스</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.4728132387706856</v>
+        <v>0.3490566037735849</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4373522458628842</v>
+        <v>0.3349056603773585</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03546099290780142</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0591016548463357</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-29</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7483123522735181102</t>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7486657995095706926</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1655</v>
+        <v>158</v>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>정말 감사합니다. 이 아이콘을 사용해 볼 수 있어서 너무 기쁩니다!@Colleen Rothschild Beauty #skincare</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0.6329113924050633</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.6329113924050633</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7485893270204271918</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>291</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7</v>
+      </c>
+      <c r="D13" t="n">
         <v>2</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>광채로 많은 것을 주는 파운데이션이 너무 좋아요! 시도되고 진정한 발광 실크가 제공됩니다! 모든 피부 유형과 연령에 맞는 구매 가능하고 피부와 비슷하며 24시간 수분 공급!</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1.08761329305136</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.9667673716012084</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.1208459214501511</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.1208459214501511</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>2025-03-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7482945341570960683</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>374</v>
-      </c>
-      <c r="C13" t="n">
-        <v>10</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>의상은 조립하기 위해 복잡할 필요가 없습니다! 블레이저 셔츠 스커트 신발 여왕과 괴물 입술 가방 @Good American</t>
+          <t>나는 그늘과 치수를 추가하는 것을 좋아하지만 브론저는 해변에서 햇볕에 쬐는 날처럼 보이는 것을 좋아합니다! 이것은 좋아하는 것입니다! 컬러 미디엄입니다!</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2.67379679144385</v>
+        <v>3.092783505154639</v>
       </c>
       <c r="I13" t="n">
-        <v>2.67379679144385</v>
+        <v>2.405498281786942</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.6872852233676976</v>
       </c>
       <c r="L13" t="n">
-        <v>0.267379679144385</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-26</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7482942263929081134</t>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7485169018509217067</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>746</v>
+        <v>602</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
@@ -1134,494 +1135,494 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>그냥 립스틱이라는 것을 기억하자! 💄 라이너는 황갈색 누드 글로스는 라벤더 소르베트@Jones Road Beauty</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1.32890365448505</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.9966777408637874</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3322259136212625</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7484602588176944430</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>379</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>나는 오늘 준비하고 있었고 사람들이 확대 거울을 내려놓아야 한다고 생각했습니다. 여성과 남성은 모든 사람이 자신이 보는 것을 보고 있다고 생각하는 거울을 너무 가까이서 보는 것으로 자신을 엄하게 대합니다. 물러나세요 여러분은 훨씬 더 행복할 것입니다!</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1.58311345646438</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.58311345646438</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7484307309678710059</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>339</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>28년의 메이크업 아티스트로서 저는 수년 동안 소셜에서 응용에 대한 흥미로운 추세를 발견했습니다! 이것이 도움이 되기를 바랍니다!</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1.179941002949852</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.179941002949852</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7483868122647252266</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8460</v>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>나는 사용하기 매우 쉬운 쉬폰과 계피 라이너에 집착하여 우아한 모습을 연출합니다! 메이크업 아래 링크 쇼핑</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>0.4728132387706856</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.4373522458628842</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.03546099290780142</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0591016548463357</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7483123522735181102</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1655</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>광채로 많은 것을 주는 파운데이션이 너무 좋아요! 시도되고 진정한 발광 실크가 제공됩니다! 모든 피부 유형과 연령에 맞는 구매 가능하고 피부와 비슷하며 24시간 수분 공급!</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1.08761329305136</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9667673716012084</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1208459214501511</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.1208459214501511</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7482945341570960683</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>374</v>
+      </c>
+      <c r="C19" t="n">
+        <v>10</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>의상은 조립하기 위해 복잡할 필요가 없습니다! 블레이저 셔츠 스커트 신발 여왕과 괴물 입술 가방 @Good American</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2.67379679144385</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.67379679144385</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.267379679144385</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7482942263929081134</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>746</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>내가 가장 좋아하는 디탱글러는 여행 사이즈입니다! 🫶🏻@LolaVie #hairtok #traveltok #hairaccessories #hairproducts</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H20" t="n">
         <v>0.4021447721179625</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I20" t="n">
         <v>0.1340482573726542</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.2680965147453083</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherrymorganmakeup/video/7482524604053916970</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B21" t="n">
         <v>419</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C21" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="inlineStr">
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>나는 이 립밤/마스크가 내가 가장 좋아하는 것 중 하나가 된 것을 사랑합니다! 가방에 꼭 있어야 합니다!@YSEBeauty #lip</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H21" t="n">
         <v>0.2386634844868735</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I21" t="n">
         <v>0.2386634844868735</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherrymorganmakeup/video/7482506818984611118</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B22" t="n">
         <v>455</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C22" t="n">
         <v>7</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D22" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="inlineStr">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>판매 마지막 날! !!!!!! 당신은 이것을 놓치고 싶지 않습니다! 우리 가게의 모든 것을 20% 할인 + 40달러 이상 주문 10달러 할인</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H22" t="n">
         <v>1.758241758241758</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I22" t="n">
         <v>1.538461538461539</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.2197802197802198</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherrymorganmakeup/video/7482039785809349934</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B23" t="n">
         <v>415</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr">
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>- 우리 가게의 모든 것을 20% 할인 + 40달러 이상 주문 10달러 할인 - 종료: 3월 16일 일요일🏃🏼‍♀️🏃🏼‍♀️🏃🏼‍♀️놓치지 마세요!!!!</t>
         </is>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherrymorganmakeup/video/7481857648023850282</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B24" t="n">
         <v>3335</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C24" t="n">
         <v>10</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>디바스 메이크업으로 눈썹을 완성했어요! 항상 놀라운 일을 합니다! 승리를 위한 라미네이션과 컬러!#browlamination</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>0.3298350824587706</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.2998500749625188</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.02998500749625187</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>2025-03-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7480528863429233963</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>329</v>
-      </c>
-      <c r="C19" t="n">
-        <v>13</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>나는 당신이 너무 예쁘고 저렴하게 찾을 수 있는 이 좋은 것들을 좋아합니다! !! 내 바이오 언더샵 메이크업에 링크!</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4.86322188449848</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.951367781155015</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.911854103343465</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7480288585573223723</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>669</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>나는 이 브론저를 너무 좋아하고 너무 크리미하고 아름다운 마무리를 제공합니다! 내 바이오의 내 즐겨찾기 목록에 확실히 추가했습니다! 확인해 보세요!</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1.345291479820628</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.7473841554559043</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.5979073243647235</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.1494768310911809</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7479096846909115694</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>589</v>
-      </c>
-      <c r="C21" t="n">
-        <v>8</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Thank you @Clarins Official for this lip oil!!! You know how much I LOVE THEM 😍 if you have not tried them now is your chance!!!! #lipgloss #lipoil #clarins #happyanniversary #makeuptips #makeupreview</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>1.358234295415959</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.358234295415959</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>2025-03-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7478673193465580846</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>389</v>
-      </c>
-      <c r="C22" t="n">
-        <v>5</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Fragrance has never been so accessible! Shay and Blue have created fragrances you can wear alone or pair together! See for yourself with their discovery kit! @Shay &amp; Blue USA #shayandblue #fragrance #perfumes #affordablefashion #fragrancetiktok</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>2.056555269922879</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.2853470437018</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.7712082262210797</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7478509641257717038</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>365</v>
-      </c>
-      <c r="C23" t="n">
-        <v>8</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>이 마스카라에 푹 빠졌어요! !!!! 내 바이오 언더샵 메이크업에 링크!@Charlotte Tilbury #mascara #makeupartist</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2.191780821917808</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.191780821917808</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.273972602739726</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7476267253240040747</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>971</v>
-      </c>
-      <c r="C24" t="n">
-        <v>14</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -1630,48 +1631,48 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>내 미용사들은 내가 머리를 자르고 기르는 것을 참는 것에 대해 금의 마음을 가지고 있습니다. 이번에는 짧은 단발로 성장시킵니다.</t>
+          <t>디바스 메이크업으로 눈썹을 완성했어요! 항상 놀라운 일을 합니다! 승리를 위한 라미네이션과 컬러!#browlamination</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1.544799176107106</v>
+        <v>0.3298350824587706</v>
       </c>
       <c r="I24" t="n">
-        <v>1.441812564366632</v>
+        <v>0.2998500749625188</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1029866117404737</v>
+        <v>0.02998500749625187</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1029866117404737</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-15</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7476082079630003502</t>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7480528863429233963</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>636</v>
+        <v>329</v>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D25" t="n">
         <v>3</v>
@@ -1684,20 +1685,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>I fell in love with @Nuxe while at my hotel in Paris! It smells soooo good and hydrates without leaving you oily. Love this so much! ❤️ hair and body towel @VOLO Beauty #bodyproducts #bodyoil #skincaretips #paris #parisianstyle #nuxe #hydrate</t>
+          <t>나는 당신이 너무 예쁘고 저렴하게 찾을 수 있는 이 좋은 것들을 좋아합니다! !! 내 바이오 언더샵 메이크업에 링크!</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1.572327044025157</v>
+        <v>4.86322188449848</v>
       </c>
       <c r="I25" t="n">
-        <v>1.10062893081761</v>
+        <v>3.951367781155015</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4716981132075472</v>
+        <v>0.911854103343465</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1707,24 +1708,24 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7474990784945851694</t>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7480288585573223723</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>403</v>
+        <v>669</v>
       </c>
       <c r="C26" t="n">
         <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1734,744 +1735,744 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
+          <t>나는 이 브론저를 너무 좋아하고 너무 크리미하고 아름다운 마무리를 제공합니다! 내 바이오의 내 즐겨찾기 목록에 확실히 추가했습니다! 확인해 보세요!</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1.345291479820628</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.7473841554559043</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.5979073243647235</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.1494768310911809</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7479096846909115694</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>589</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Thank you @Clarins Official for this lip oil!!! You know how much I LOVE THEM 😍 if you have not tried them now is your chance!!!! #lipgloss #lipoil #clarins #happyanniversary #makeuptips #makeupreview</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1.358234295415959</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.358234295415959</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2025-03-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7478673193465580846</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>389</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Fragrance has never been so accessible! Shay and Blue have created fragrances you can wear alone or pair together! See for yourself with their discovery kit! @Shay &amp; Blue USA #shayandblue #fragrance #perfumes #affordablefashion #fragrancetiktok</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2.056555269922879</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.2853470437018</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.7712082262210797</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7478509641257717038</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>365</v>
+      </c>
+      <c r="C29" t="n">
+        <v>8</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>이 마스카라에 푹 빠졌어요! !!!! 내 바이오 언더샵 메이크업에 링크!@Charlotte Tilbury #mascara #makeupartist</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2.191780821917808</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.191780821917808</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.273972602739726</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7476267253240040747</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>971</v>
+      </c>
+      <c r="C30" t="n">
+        <v>14</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>내 미용사들은 내가 머리를 자르고 기르는 것을 참는 것에 대해 금의 마음을 가지고 있습니다. 이번에는 짧은 단발로 성장시킵니다.</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1.544799176107106</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.441812564366632</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.1029866117404737</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.1029866117404737</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7476082079630003502</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>636</v>
+      </c>
+      <c r="C31" t="n">
+        <v>7</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>I fell in love with @Nuxe while at my hotel in Paris! It smells soooo good and hydrates without leaving you oily. Love this so much! ❤️ hair and body towel @VOLO Beauty #bodyproducts #bodyoil #skincaretips #paris #parisianstyle #nuxe #hydrate</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1.572327044025157</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.10062893081761</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7474990784945851694</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>403</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>컨실러 아래가 무겁지 않고 낮에 충분히 수분을 공급하는 이 아이밤이 너무 좋아요! 확인해 보세요!@TULA skincare #eyes</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H32" t="n">
         <v>1.488833746898263</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I32" t="n">
         <v>1.240694789081886</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.2481389578163772</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L32" t="n">
         <v>0.2481389578163772</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherrymorganmakeup/video/7473701071743995178</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B33" t="n">
         <v>429</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C33" t="n">
         <v>7</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D33" t="n">
         <v>2</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="inlineStr">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>Love the way this body cream feels from @LOCCITANE plus it helps the planet by making refill bags for your container! #bodycare #bodyproducts #lotion #skincaretips #beautyhacks</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H33" t="n">
         <v>2.097902097902098</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I33" t="n">
         <v>1.631701631701632</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.4662004662004662</v>
       </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherrymorganmakeup/video/7473485431930244394</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B34" t="n">
         <v>388</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C34" t="n">
         <v>9</v>
       </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="inlineStr">
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>그래서 저는 파운데이션 샘플을 착용하고 마침내 그것을 가지러 갔습니다! 쉐이드 골든 11, 스틱과 파운데이션 스틱도 샀어요. 마지막으로 컨실러는 계속 지켜봐 주세요!</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H34" t="n">
         <v>2.31958762886598</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I34" t="n">
         <v>2.31958762886598</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherrymorganmakeup/video/7473305161780235562</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B35" t="n">
         <v>370</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C35" t="n">
         <v>3</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="inlineStr">
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>I love the ease of @YSEBeauty skincare! Linked in bio under shop makeup! 💄 use code Sherry20 #skincareroutine #skincare #skincare101 #over50 #yse #beautytutorial</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H35" t="n">
         <v>0.8108108108108109</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I35" t="n">
         <v>0.8108108108108109</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherrymorganmakeup/video/7473115053730925870</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B36" t="n">
         <v>7655</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C36" t="n">
         <v>48</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D36" t="n">
         <v>3</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>4</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>스킨케어의 용이성이 너무 좋아요! 바이오 언더샵 메이크업에 링크가 💄 코드 쉐리20 사용@YSEBeauty #skincareroutine</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H36" t="n">
         <v>0.666231221423906</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I36" t="n">
         <v>0.6270411495754409</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.03919007184846506</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L36" t="n">
         <v>0.05225342913128674</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherrymorganmakeup/video/7472121313654476075</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B37" t="n">
         <v>718</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C37" t="n">
         <v>9</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D37" t="n">
         <v>1</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="inlineStr">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>나에게 스모키 브라운 아이섀도를 보냈고 그것은 이제 나의 최근 집착입니다! 직접 확인해 보세요!@Jones Road Beauty</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H37" t="n">
         <v>1.392757660167131</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I37" t="n">
         <v>1.253481894150418</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.1392757660167131</v>
       </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-02-17</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherrymorganmakeup/video/7471640056927784238</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B38" t="n">
         <v>493</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C38" t="n">
         <v>9</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D38" t="n">
         <v>2</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="inlineStr">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>나는 여기에서 이 컬렉션을 좋아합니다. 그들 모두에 대한 나의 작은 리뷰입니다! 또한 블러셔는 모래시계의 새로운 것에 좋은 속임수입니다!!!</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H38" t="n">
         <v>2.231237322515213</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I38" t="n">
         <v>1.825557809330629</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.4056795131845842</v>
       </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-02-15</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherrymorganmakeup/video/7470973757524413738</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B39" t="n">
         <v>46900</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C39" t="n">
         <v>103</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D39" t="n">
         <v>9</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>21</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>매장에 링크된 립글로스의 모브와 데이지 립글로스의 립펜슬!@Jones Road Beauty @LAWLESS Beauty</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H39" t="n">
         <v>0.2388059701492537</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I39" t="n">
         <v>0.2196162046908315</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.01918976545842217</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L39" t="n">
         <v>0.04477611940298507</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherrymorganmakeup/video/7469794765928746283</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B40" t="n">
         <v>330</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C40" t="n">
         <v>6</v>
       </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="inlineStr">
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>나는 탄소 발자국을 배우려는 회사를 좋아합니다! 이 귀여운 케이스와 지갑을 확인하세요! 모든 재활용 재료!@Pela Case</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H40" t="n">
         <v>1.818181818181818</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I40" t="n">
         <v>1.818181818181818</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-02-10</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sherrymorganmakeup/video/7468797736830225707</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B41" t="n">
         <v>675</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C41" t="n">
         <v>13</v>
-      </c>
-      <c r="D35" t="n">
-        <v>2</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>이 새로운 광택에 보내는 내 러브레터 그것들은 완벽하게 빛나고 너무 끈적거리지 않아요! 게다가 그들은 내가 좋아하는 맛이 없어요💕 이 립 오일과 반짝이는 립글로스로 이번 시즌에 당신의 빛을 발해요! 선택하기에 너무 많은 좋은 것들!</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>2.222222222222222</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1.925925925925926</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>2025-02-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7468459935496473898</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>491</v>
-      </c>
-      <c r="C36" t="n">
-        <v>12</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>할 수 있을 때 잡아! !! 전체 상점 15% 할인 - 시작: 2월 3일 월요일 - 종료: 2월 9일 일요일 #tiktokshoploveatfirstfind #deals</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>2.443991853360489</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2.443991853360489</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>2025-02-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7468104943191199019</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>451</v>
-      </c>
-      <c r="C37" t="n">
-        <v>3</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>이 향기가 너무 좋아요! 그리고 나는 그것을 다른 것들과 겹치는 것을 좋아합니다!#fragrance #vanilla #perfumetiktok</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>0.6651884700665188</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.6651884700665188</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>2025-02-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7467734613176159530</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>1114</v>
-      </c>
-      <c r="C38" t="n">
-        <v>7</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>젤 라이너로 기분이 좋아요!!@Jones Road Beauty #CapCut #eyeliner #michaelbublé #feelinggood #beautytutorial</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>0.6283662477558348</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.6283662477558348</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7467545682094673195</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>1153</v>
-      </c>
-      <c r="C39" t="n">
-        <v>23</v>
-      </c>
-      <c r="D39" t="n">
-        <v>3</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>드디어 라인에 영구적으로 도착했습니다! 젤 라이너! 나는 이 제품으로 더블 라이닝을 좋아합니다! 나는 들어 올리는 블랙으로 시작한 다음 바이올렛 또는 네이비를 사용합니다. 😉</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>2.25498699045967</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.99479618386817</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.2601908065915005</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>2025-02-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7466948719204699438</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>450</v>
-      </c>
-      <c r="C40" t="n">
-        <v>11</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>나는 멋진 메이크업 데이를 좋아합니다! 바이오에 링크된 제품 언더샵 메이크업 💄@Haus Labs by Lady Gaga</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>2.444444444444445</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2.444444444444445</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>2025-02-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7466915005204679982</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>550</v>
-      </c>
-      <c r="C41" t="n">
-        <v>7</v>
       </c>
       <c r="D41" t="n">
         <v>2</v>
@@ -2484,20 +2485,20 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>하이드레이트의 이 밀크 세럼은 통통하고 유리 피부 효과를 줍니다. 메이크업 아래 멋져 보이는 빛나는 피부를 위해!</t>
+          <t>이 새로운 광택에 보내는 내 러브레터 그것들은 완벽하게 빛나고 너무 끈적거리지 않아요! 게다가 그들은 내가 좋아하는 맛이 없어요💕 이 립 오일과 반짝이는 립글로스로 이번 시즌에 당신의 빛을 발해요! 선택하기에 너무 많은 좋은 것들!</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1.636363636363636</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="I41" t="n">
-        <v>1.272727272727273</v>
+        <v>1.925925925925926</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -2507,271 +2508,271 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
+          <t>2025-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7468459935496473898</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>491</v>
+      </c>
+      <c r="C42" t="n">
+        <v>12</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>할 수 있을 때 잡아! !! 전체 상점 15% 할인 - 시작: 2월 3일 월요일 - 종료: 2월 9일 일요일 #tiktokshoploveatfirstfind #deals</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2.443991853360489</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2.443991853360489</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7468104943191199019</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>451</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>이 향기가 너무 좋아요! 그리고 나는 그것을 다른 것들과 겹치는 것을 좋아합니다!#fragrance #vanilla #perfumetiktok</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>0.6651884700665188</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.6651884700665188</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7467734613176159530</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1114</v>
+      </c>
+      <c r="C44" t="n">
+        <v>7</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>젤 라이너로 기분이 좋아요!!@Jones Road Beauty #CapCut #eyeliner #michaelbublé #feelinggood #beautytutorial</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>0.6283662477558348</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.6283662477558348</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7467545682094673195</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1153</v>
+      </c>
+      <c r="C45" t="n">
+        <v>23</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>드디어 라인에 영구적으로 도착했습니다! 젤 라이너! 나는 이 제품으로 더블 라이닝을 좋아합니다! 나는 들어 올리는 블랙으로 시작한 다음 바이올렛 또는 네이비를 사용합니다. 😉</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2.25498699045967</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.99479618386817</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.2601908065915005</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7466948719204699438</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>450</v>
+      </c>
+      <c r="C46" t="n">
+        <v>11</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>나는 멋진 메이크업 데이를 좋아합니다! 바이오에 링크된 제품 언더샵 메이크업 💄@Haus Labs by Lady Gaga</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2.444444444444445</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.444444444444445</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
           <t>2025-02-03</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7464373268284247342</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>567</v>
-      </c>
-      <c r="C42" t="n">
-        <v>8</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Loving these joggers from @Alo Yoga top top is @SKIMS #over50 #fashionfinds #fashiontok #athleisure #fashionessentials #skims</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>1.410934744268078</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1.410934744268078</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>2025-01-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7461802878118661422</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>6999</v>
-      </c>
-      <c r="C43" t="n">
-        <v>44</v>
-      </c>
-      <c r="D43" t="n">
-        <v>2</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>4</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>위에서 이 조깅하는 사람들을 사랑하는 것은@Alo Yoga @SKIMS #over50 #fashionfinds #fashiontok #athleisure</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>0.6572367481068724</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.6286612373196171</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.02857551078725532</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.05715102157451064</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>2025-01-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7461301185618742570</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>668</v>
-      </c>
-      <c r="C44" t="n">
-        <v>13</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>여기의 모든 재미에 대해 친구들에게 감사합니다. 다른 장소에서 계속합시다!#follow #followme #insta #youtube #lemon8us</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>2.095808383233533</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1.946107784431138</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.1497005988023952</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.2994011976047904</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>2025-01-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7460324311526624555</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>679</v>
-      </c>
-      <c r="C45" t="n">
-        <v>25</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>나는 더블 라이닝을 좋아합니다! 먼저 블랙 젤 라이너를 사용했습니다. 아티스트 참고: 브러시에 충분한 양이 있는지 확인하십시오. 나는 마지막 속눈썹 라인에서 날개를 시작하고 똑바로 올라가는 것을 좋아합니다. 그런 다음 다른 라이너 색상으로 middle@Section을 살펴봅니다. 이것은 완벽한 Grafton 거리입니다. 그런 다음 손가락으로 약간 번지게 합니다!</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>3.829160530191458</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3.681885125184094</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.1472754050073638</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7460161772335549738</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>582</v>
-      </c>
-      <c r="C46" t="n">
-        <v>12</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>좋은 누드 립 콤보를 사랑하세요! 상징적인 누드 라이너 누드 글로우의 수분 글로우@Charlotte Tilbury @makeupbymario</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>2.233676975945017</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2.061855670103093</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.1718213058419244</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.1718213058419244</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-    </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7459874708801064234</t>
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7466915005204679982</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>841</v>
+        <v>550</v>
       </c>
       <c r="C47" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D47" t="n">
         <v>2</v>
@@ -2784,20 +2785,20 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>I love this product so much! I have it in bronze and Midas! I need to get the pink one!!! @Jones Road Beauty #glow #glowingskin #makeuphacks #jonesroadbeauty #glowing</t>
+          <t>하이드레이트의 이 밀크 세럼은 통통하고 유리 피부 효과를 줍니다. 메이크업 아래 멋져 보이는 빛나는 피부를 위해!</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>2.140309155766944</v>
+        <v>1.636363636363636</v>
       </c>
       <c r="I47" t="n">
-        <v>1.902497027348395</v>
+        <v>1.272727272727273</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>0.2378121284185493</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -2807,24 +2808,24 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-02-03</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7459565234689461550</t>
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7464373268284247342</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>717</v>
+        <v>567</v>
       </c>
       <c r="C48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -2834,20 +2835,20 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>나는 이것을 몇 년 동안 사용했습니다! 손이 정말 건조하면 좋아요! 습진이 있는 아들에게도 도움이 되었어요!@LOCCITANE</t>
+          <t>Loving these joggers from @Alo Yoga top top is @SKIMS #over50 #fashionfinds #fashiontok #athleisure #fashionessentials #skims</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1.394700139470014</v>
+        <v>1.410934744268078</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9762900976290098</v>
+        <v>1.410934744268078</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.4184100418410042</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -2857,107 +2858,157 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-27</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7459476083218353450</t>
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7461802878118661422</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>622</v>
+        <v>6999</v>
       </c>
       <c r="C49" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>사용하기 쉬운 블러셔/윤곽 스틱@DIBSBEAUTY #makeuproutine #blush #contour #simple</t>
+          <t>위에서 이 조깅하는 사람들을 사랑하는 것은@Alo Yoga @SKIMS #over50 #fashionfinds #fashiontok #athleisure</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>3.376205787781351</v>
+        <v>0.6572367481068724</v>
       </c>
       <c r="I49" t="n">
-        <v>2.893890675241158</v>
+        <v>0.6286612373196171</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.482315112540193</v>
+        <v>0.02857551078725532</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>0.05715102157451064</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-20</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7459191027241422123</t>
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7461301185618742570</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3500</v>
+        <v>668</v>
       </c>
       <c r="C50" t="n">
         <v>13</v>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>끈적이지 않고 질감을 더하고 향이 좋아서 이 조각 페이스트가 너무 좋아요! 😊@LolaVie #hairtok #haircut #hairproducts</t>
+          <t>여기의 모든 재미에 대해 친구들에게 감사합니다. 다른 장소에서 계속합시다!#follow #followme #insta #youtube #lemon8us</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>0.4571428571428572</v>
+        <v>2.095808383233533</v>
       </c>
       <c r="I50" t="n">
-        <v>0.3714285714285714</v>
+        <v>1.946107784431138</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.1497005988023952</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>0.2994011976047904</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sherrymorganmakeup/video/7460324311526624555</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>679</v>
+      </c>
+      <c r="C51" t="n">
+        <v>25</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>나는 더블 라이닝을 좋아합니다! 먼저 블랙 젤 라이너를 사용했습니다. 아티스트 참고: 브러시에 충분한 양이 있는지 확인하십시오. 나는 마지막 속눈썹 라인에서 날개를 시작하고 똑바로 올라가는 것을 좋아합니다. 그런 다음 다른 라이너 색상으로 middle@Section을 살펴봅니다. 이것은 완벽한 Grafton 거리입니다. 그런 다음 손가락으로 약간 번지게 합니다!</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3.829160530191458</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3.681885125184094</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1472754050073638</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
         </is>
       </c>
     </row>
